--- a/.NET/SimpleExcelGrep/testdata/test.xlsx
+++ b/.NET/SimpleExcelGrep/testdata/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\PublicMemo\.NET\SimpleExcelGrep\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\.NET\SimpleExcelGrep\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50159788-8E80-44F7-81DF-460A846A01A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E68AB16-BA10-4C19-9C11-4C7238FB263D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="あ" sheetId="1" r:id="rId1"/>
@@ -117,6 +117,144 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円柱 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC39EE5C-61F5-7A89-AF96-D1DB67743455}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="2181225"/>
+          <a:ext cx="2705100" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HOGE</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円柱 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E39352F-3721-4D92-A2A7-2E7CD095026A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="2619375"/>
+          <a:ext cx="2705100" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HOGE</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -418,6 +556,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -425,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260BA52A-E4BB-4D66-B8C4-4963D0399D8B}">
   <dimension ref="A4:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -459,5 +598,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/.NET/SimpleExcelGrep/testdata/test.xlsx
+++ b/.NET/SimpleExcelGrep/testdata/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\.NET\SimpleExcelGrep\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E68AB16-BA10-4C19-9C11-4C7238FB263D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02AEDAB-A8F2-493E-9784-F7EF85BBC347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>apple</t>
     <phoneticPr fontId="1"/>
@@ -54,6 +54,10 @@
   <si>
     <t>XYZ
 ABC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOGE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -520,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:D5"/>
+  <dimension ref="A4:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -553,6 +557,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -562,10 +571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260BA52A-E4BB-4D66-B8C4-4963D0399D8B}">
-  <dimension ref="A4:D5"/>
+  <dimension ref="A4:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -595,6 +604,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.NET/SimpleExcelGrep/testdata/test.xlsx
+++ b/.NET/SimpleExcelGrep/testdata/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\.NET\SimpleExcelGrep\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motok\_git\Public\.NET\SimpleExcelGrep\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02AEDAB-A8F2-493E-9784-F7EF85BBC347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47FFBEF-699C-41D3-9C91-0DA4DA2B3A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="1620" windowWidth="17385" windowHeight="12930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="あ" sheetId="1" r:id="rId1"/>
@@ -256,6 +256,295 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="円柱 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9C0226-32C3-F304-5CF2-BE4E35DFC225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="2619374"/>
+          <a:ext cx="1743075" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>複数行コメント１</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>複数行コメント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>２</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>複数行コメント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>３</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51590D78-69AB-B456-7DAC-81B0BE22B822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4981575" y="4676775"/>
+          <a:ext cx="2076450" cy="1628775"/>
+          <a:chOff x="4981575" y="4676775"/>
+          <a:chExt cx="2076450" cy="1628775"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="円柱 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFEC76DF-6A77-3C4D-3F77-F65D0197673E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4981575" y="4676775"/>
+            <a:ext cx="1400175" cy="1047750"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>グループ化１</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="円柱 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B562D030-EC1F-141C-DC85-AC62F2F0EE50}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5657850" y="5257800"/>
+            <a:ext cx="1400175" cy="1047750"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>グループ化２</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -573,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260BA52A-E4BB-4D66-B8C4-4963D0399D8B}">
   <dimension ref="A4:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
